--- a/doc/工作流引擎v2.0.xlsx
+++ b/doc/工作流引擎v2.0.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="数据模型" sheetId="1" r:id="rId1"/>
-    <sheet name="v1.0功能清单" sheetId="2" r:id="rId2"/>
-    <sheet name="v1.1功能清单" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="161">
   <si>
     <t>中文名称</t>
   </si>
@@ -331,40 +329,10 @@
     <t>根据节点指派表达式生成</t>
   </si>
   <si>
-    <t>负责人</t>
-  </si>
-  <si>
     <t>版本号</t>
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>功能点</t>
-  </si>
-  <si>
-    <t>解析bpmn2.0的XML数据,生成流程表、流程节点表、节点路由表、节点指派表</t>
-  </si>
-  <si>
-    <t>解析节点类型约定：开始事件、结束事件、终止事件、排他网关、并行网关、人工任务</t>
-  </si>
-  <si>
-    <t>解析基于qlang的脚本表达式</t>
-  </si>
-  <si>
-    <t>约定范围：表达式、函数、SQL</t>
-  </si>
-  <si>
-    <t>业务流转状态机实现</t>
-  </si>
-  <si>
-    <t>于鹏飞</t>
-  </si>
-  <si>
-    <t>尹宝强</t>
-  </si>
-  <si>
-    <t>田念收</t>
   </si>
   <si>
     <t>URL:表单链接路径
@@ -419,36 +387,6 @@
     <t>constraint_config</t>
   </si>
   <si>
-    <t>查询待办流程列表接口</t>
-  </si>
-  <si>
-    <t>发起流程接口</t>
-  </si>
-  <si>
-    <t>处理流程接口</t>
-  </si>
-  <si>
-    <t>加载bpmn2.0文件，存储流程元数据</t>
-  </si>
-  <si>
-    <t>解析bpmn2.0的表单配置</t>
-  </si>
-  <si>
-    <t>提供表单渲染器，将表单配置渲染为HTML</t>
-  </si>
-  <si>
-    <t>将表单配置元数据存储到数据库</t>
-  </si>
-  <si>
-    <t>提供web版的流程设计器</t>
-  </si>
-  <si>
-    <t>提供工作流的查询列表，支持查看工作流</t>
-  </si>
-  <si>
-    <t>支持工作流的管理，包括：创建工作流、复制工作流、删除工作流</t>
-  </si>
-  <si>
     <t>表单数据</t>
   </si>
   <si>
@@ -468,12 +406,6 @@
   </si>
   <si>
     <t>ref_flow_id</t>
-  </si>
-  <si>
-    <t>调整数据模型，支持动态表单、支持子流程设计</t>
-  </si>
-  <si>
-    <t>增加流程版本的支持</t>
   </si>
   <si>
     <t>流程标志</t>
@@ -490,15 +422,6 @@
   </si>
   <si>
     <t>父级流程内码</t>
-  </si>
-  <si>
-    <t>表单配置支持：字段ID、字段类型、字段标签、默认值、字段验证、字段属性</t>
-  </si>
-  <si>
-    <t>支持ionic渲染</t>
-  </si>
-  <si>
-    <t>增加流程终止接口</t>
   </si>
   <si>
     <t>字段选项表</t>
@@ -675,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -735,43 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -780,7 +666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,12 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -808,15 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1101,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +989,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1216,10 +1087,10 @@
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1276,10 +1147,10 @@
     <row r="10" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -1287,16 +1158,16 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -1319,7 +1190,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1368,17 +1239,17 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -1536,17 +1407,17 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -1625,7 +1496,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1751,17 +1622,17 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -1784,7 +1655,7 @@
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
@@ -1806,8 +1677,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>162</v>
+      <c r="A42" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -1842,16 +1713,16 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>14</v>
@@ -1906,17 +1777,17 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
@@ -1995,7 +1866,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2012,7 +1883,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2110,17 +1981,17 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>0</v>
@@ -2199,13 +2070,13 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>60</v>
@@ -2265,17 +2136,17 @@
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>0</v>
@@ -2298,7 +2169,7 @@
     </row>
     <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>7</v>
@@ -2354,13 +2225,13 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>21</v>
@@ -2375,10 +2246,10 @@
     <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>29</v>
@@ -2433,17 +2304,17 @@
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>0</v>
@@ -2522,7 +2393,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2569,16 +2440,16 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>26</v>
@@ -2633,17 +2504,17 @@
       <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>0</v>
@@ -2666,7 +2537,7 @@
     </row>
     <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>7</v>
@@ -2722,13 +2593,13 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>17</v>
@@ -2743,10 +2614,10 @@
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>18</v>
@@ -2773,13 +2644,13 @@
     <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -2831,17 +2702,17 @@
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>0</v>
@@ -2864,7 +2735,7 @@
     </row>
     <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -2909,10 +2780,10 @@
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>14</v>
@@ -2920,16 +2791,16 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>18</v>
@@ -2941,13 +2812,13 @@
     <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -2999,17 +2870,17 @@
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>0</v>
@@ -3032,7 +2903,7 @@
     </row>
     <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>7</v>
@@ -3077,10 +2948,10 @@
     <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>14</v>
@@ -3088,13 +2959,13 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>17</v>
@@ -3109,13 +2980,13 @@
     <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -3167,17 +3038,17 @@
       <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>0</v>
@@ -3200,7 +3071,7 @@
     </row>
     <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>7</v>
@@ -3245,10 +3116,10 @@
     <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>14</v>
@@ -3256,16 +3127,16 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>18</v>
@@ -3277,13 +3148,13 @@
     <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -3335,17 +3206,17 @@
       <c r="G132" s="3"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="7"/>
     </row>
     <row r="134" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>0</v>
@@ -3424,7 +3295,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="86" x14ac:dyDescent="0.2">
@@ -3520,17 +3391,17 @@
       <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="7"/>
     </row>
     <row r="145" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>0</v>
@@ -3609,7 +3480,7 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3752,17 +3623,17 @@
       <c r="G157" s="3"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="7"/>
     </row>
     <row r="159" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>0</v>
@@ -3841,7 +3712,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3925,588 +3796,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="62.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="72.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:B8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="72.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="35" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>